--- a/medicine/Sexualité et sexologie/Gigolo/Gigolo.xlsx
+++ b/medicine/Sexualité et sexologie/Gigolo/Gigolo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un gigolo est un terme du langage familier désignant un homme qui se fait entretenir en échange de faveurs sexuelles. Quand un « gigolo » exerce cette activité de manière professionnelle, il peut être qualifié d'escort, de travailleur du sexe, voire tout simplement de prostitué, ou de « pute ».
-Ce mot, masculin de gigolette, est probablement dérivé du mot « gigue » (jambe), une danse[1], le gigolo étant un partenaire de danse pour femmes seules.
+Ce mot, masculin de gigolette, est probablement dérivé du mot « gigue » (jambe), une danse, le gigolo étant un partenaire de danse pour femmes seules.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>En fiction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La Gigolo, roman de Jacques Robert (1959) ;
 Le Gigolo, pièce de théâtre de Françoise Sagan (1960 ;
@@ -561,7 +575,9 @@
           <t>En musique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>C'est mon gigolo, chanson de Damia en 1929.
 International Deejay Gigolo, label allemand de musique électronique.
@@ -603,7 +619,9 @@
           <t>Autres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Gigolo FRH, cheval de dressage.
 </t>
@@ -634,7 +652,9 @@
           <t>Autres projets</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
